--- a/Documents/Repartition des taches PROJETANNUEL2i1.xlsx
+++ b/Documents/Repartition des taches PROJETANNUEL2i1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MS-IW-OFFICE-UA\Office_Online\Projects\Templates_Gemini_G1\Phases\41_FY15Mar06-Templates-WAC\04_Spotcheck_results\Batch1\FRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenji\OneDrive\Documents\GitHub\Projet_Annuel2i\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADEA033-C553-4522-AF07-DD6A63727166}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5ADEA033-C553-4522-AF07-DD6A63727166}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{44B0C694-925D-4F12-AAC9-60C089F66845}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -770,23 +770,23 @@
   </sheetPr>
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="36.75" customHeight="1">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,11 +803,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="17.25" customHeight="1">
+    <row r="2" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1">
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="33" customHeight="1">
+    <row r="4" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>9</v>
@@ -834,11 +834,11 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:8" ht="27" customHeight="1">
+    <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -858,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="31.5" customHeight="1">
+    <row r="7" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -876,7 +876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="31.5" customHeight="1">
+    <row r="8" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -894,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="31.5" customHeight="1">
+    <row r="9" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
@@ -912,7 +912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="31.5" customHeight="1">
+    <row r="10" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -930,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="31.5" customHeight="1">
+    <row r="11" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -945,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="31.5" customHeight="1">
+    <row r="12" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
@@ -960,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="31.5" customHeight="1">
+    <row r="13" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="31.5" customHeight="1">
+    <row r="14" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
@@ -990,7 +990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="31.5" customHeight="1">
+    <row r="15" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="31.5" customHeight="1">
+    <row r="16" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1014,11 +1014,11 @@
       <c r="E16" s="2">
         <v>43213</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="31.5" customHeight="1">
+    <row r="17" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1029,11 +1029,11 @@
       <c r="E17" s="2">
         <v>43213</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="31.5" customHeight="1">
+      <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="31.5" customHeight="1">
+    <row r="19" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="31.5" customHeight="1">
+    <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="31.5" customHeight="1">
+    <row r="21" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="31.5" customHeight="1">
+    <row r="22" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="31.5" customHeight="1">
+    <row r="23" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
